--- a/biology/Histoire de la zoologie et de la botanique/Auguste_Dollfus/Auguste_Dollfus.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Auguste_Dollfus/Auguste_Dollfus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Dollfus (Le Havre, 30 mars 1840-Le Havre, 3 juillet 1869) est un géologue et naturaliste français, spécialiste de la géologie de l'Amérique centrale.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un armateur du Havre, il voyage avant ses dix-huit ans à travers toute l'Europe, en Afrique du Nord, à Constantinople, en Palestine et en Égypte.
 Entré à l'École des mines de Paris en 1861, il devient ingénieur civil des Mines et, dès octobre 1864, est attaché à la Commission scientifique du Mexique qui accompagne le corps expéditionnaire français.
@@ -547,7 +561,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Membre de la Société de géographie de Paris, de la Société géologique de France et de nombreuses autres sociétés savantes, on lui doit de nombreux mémoires et rapports publiés dans les Archives de la Commission scientifique du Mexique, 3 vols., 1865-1867 ainsi que 
 La Faune kiméridienne du cap de la Hève (1863)
@@ -579,9 +595,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une espèce de saurien a été nommée en son honneur : Anolis dollfusianus[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une espèce de saurien a été nommée en son honneur : Anolis dollfusianus.
 </t>
         </is>
       </c>
